--- a/biology/Microbiologie/Contophryidae/Contophryidae.xlsx
+++ b/biology/Microbiologie/Contophryidae/Contophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Contophryidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Astomatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Contophrya, formé du préfixe cont-, « perche, pieux », et de οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « cilié perché », sans doute en référence aux crochets en forme de « U » inversé, dont sont dotés ces ciliés, et qui leur donne un aspect « perché »[1],[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Contophrya, formé du préfixe cont-, « perche, pieux », et de οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « cilié perché », sans doute en référence aux crochets en forme de « U » inversé, dont sont dotés ces ciliés, et qui leur donne un aspect « perché »,
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Contophryidae ont une taille moyenne. Leur forme est allongée-ellipsoïdale. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c. à d. uniforme), avec système sécant sagittal antérieur, juste derrière une zone circulaire non cilié. Des fibres endosquelettiques sont associées aux cinéties somatiques uniquement dans la partie inférieure (= ventrale) du corps, et ils ont des structures d'attaches développées sous la forme d'une seule médiane ou de deux paires de crochets cytosquelettiques, qui ont la forme d'un « U » inversé. Leur macronoyau est ellipsoïde allongé ou en forme de ruban. Un micronoyau est présent. Leurs vacuoles contractiles sont disposées sur une seule rangée[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Contophryidae ont une taille moyenne. Leur forme est allongée-ellipsoïdale. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c. à d. uniforme), avec système sécant sagittal antérieur, juste derrière une zone circulaire non cilié. Des fibres endosquelettiques sont associées aux cinéties somatiques uniquement dans la partie inférieure (= ventrale) du corps, et ils ont des structures d'attaches développées sous la forme d'une seule médiane ou de deux paires de crochets cytosquelettiques, qui ont la forme d'un « U » inversé. Leur macronoyau est ellipsoïde allongé ou en forme de ruban. Un micronoyau est présent. Leurs vacuoles contractiles sont disposées sur une seule rangée.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Contophryidae vivent dans des habitats terrestres, dans le tube digestif d'annélides oligochètes tropicales de la famille des Glossoscolecidae[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Contophryidae vivent dans des habitats terrestres, dans le tube digestif d'annélides oligochètes tropicales de la famille des Glossoscolecidae.
 </t>
         </is>
       </c>
@@ -604,11 +622,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 juillet 2023)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 juillet 2023) :
 Contophrya de Puytorac &amp; Dragesco, 1968
-Selon Lynn (2008)[2] :
+Selon Lynn (2008) :
 Contophyra de Puytorac &amp; Dragesco, 1969
 Dicontophrya de Puytorac &amp; Dragesco, 1969</t>
         </is>
@@ -638,9 +658,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Contophryidae de Puytorac, 1972[4]. Le statut, l'affinité, la portée ou la nomenclature de ce taxon sont contestés.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Contophryidae de Puytorac, 1972. Le statut, l'affinité, la portée ou la nomenclature de ce taxon sont contestés.
 </t>
         </is>
       </c>
